--- a/assets/resultaten.xlsx
+++ b/assets/resultaten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nibbe\Documents\GitHub\sorteerhoed\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atnvo\OneDrive\Documenten\hsleiden\IARCH\week 7\sorteerhoed\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1242F2F8-1D01-43C3-9469-54E2409B1339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775DDF05-6D26-4FA0-92D4-D1674F1858FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>bdam</t>
   </si>
@@ -37,22 +37,10 @@
     <t>se</t>
   </si>
   <si>
-    <t>7.871720116618077</t>
-  </si>
-  <si>
-    <t>7.909604519774012</t>
-  </si>
-  <si>
-    <t>8.991825613079019</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> qwewwe</t>
-  </si>
-  <si>
-    <t>7.923497267759563</t>
+    <t>specialisatie</t>
   </si>
 </sst>
 </file>
@@ -84,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,13 +95,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -454,80 +456,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8.517350157728707</v>
-      </c>
-      <c r="B2">
-        <v>8.8957055214723919</v>
-      </c>
-      <c r="C2">
-        <v>10.47619047619048</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>9.433962264150944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>21.95121951219512</v>
-      </c>
-      <c r="B3">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="C3">
-        <v>16.770186335403729</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>15.428571428571431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resultaten.xlsx
+++ b/assets/resultaten.xlsx
@@ -1,53 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atnvo\OneDrive\Documenten\hsleiden\IARCH\week 7\sorteerhoed\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775DDF05-6D26-4FA0-92D4-D1674F1858FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>iat</t>
+  </si>
+  <si>
+    <t>fict</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
   <si>
     <t>bdam</t>
   </si>
   <si>
-    <t>fict</t>
-  </si>
-  <si>
-    <t>iat</t>
+    <t>specialisatie</t>
   </si>
   <si>
     <t>naam</t>
   </si>
   <si>
-    <t>se</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>specialisatie</t>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kris3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,48 +104,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -178,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,27 +197,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,24 +231,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,38 +406,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>26.83</v>
+      </c>
+      <c r="B2">
+        <v>23.72</v>
+      </c>
+      <c r="C2">
+        <v>28.49</v>
+      </c>
+      <c r="D2">
+        <v>20.96</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>23.6</v>
+      </c>
+      <c r="B3">
+        <v>25.53</v>
+      </c>
+      <c r="C3">
+        <v>27.59</v>
+      </c>
+      <c r="D3">
+        <v>23.28</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>24.53</v>
+      </c>
+      <c r="B4">
+        <v>27.04</v>
+      </c>
+      <c r="C4">
+        <v>23.34</v>
+      </c>
+      <c r="D4">
+        <v>25.09</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>29.23</v>
+      </c>
+      <c r="B5">
+        <v>21.79</v>
+      </c>
+      <c r="C5">
+        <v>23.5</v>
+      </c>
+      <c r="D5">
+        <v>25.48</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>26.06</v>
+      </c>
+      <c r="B6">
+        <v>27.03</v>
+      </c>
+      <c r="C6">
+        <v>21.64</v>
+      </c>
+      <c r="D6">
+        <v>25.27</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>27.79</v>
+      </c>
+      <c r="B7">
+        <v>22.17</v>
+      </c>
+      <c r="C7">
+        <v>27.03</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>25.46</v>
+      </c>
+      <c r="B8">
+        <v>25.13</v>
+      </c>
+      <c r="C8">
+        <v>26.85</v>
+      </c>
+      <c r="D8">
+        <v>22.56</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>25.42</v>
+      </c>
+      <c r="B9">
+        <v>27.99</v>
+      </c>
+      <c r="C9">
+        <v>21.01</v>
+      </c>
+      <c r="D9">
+        <v>25.58</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resultaten.xlsx
+++ b/assets/resultaten.xlsx
@@ -34,22 +34,22 @@
     <t>naam</t>
   </si>
   <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kris3</t>
+    <t>27.97</t>
+  </si>
+  <si>
+    <t>23.74</t>
+  </si>
+  <si>
+    <t>27.59</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wett</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,22 +570,141 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>29.04</v>
+      </c>
+      <c r="B11">
+        <v>23.5</v>
+      </c>
+      <c r="C11">
+        <v>24.7</v>
+      </c>
+      <c r="D11">
+        <v>22.76</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>31.62</v>
+      </c>
+      <c r="B12">
+        <v>21.24</v>
+      </c>
+      <c r="C12">
+        <v>27.68</v>
+      </c>
+      <c r="D12">
+        <v>19.46</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>26.57</v>
+      </c>
+      <c r="B13">
+        <v>26.53</v>
+      </c>
+      <c r="C13">
+        <v>22.17</v>
+      </c>
+      <c r="D13">
+        <v>24.73</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>23.99</v>
+      </c>
+      <c r="B14">
+        <v>25.52</v>
+      </c>
+      <c r="C14">
+        <v>26.27</v>
+      </c>
+      <c r="D14">
+        <v>24.21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>27.59</v>
+      </c>
+      <c r="B16">
+        <v>19.83</v>
+      </c>
+      <c r="C16">
+        <v>23.45</v>
+      </c>
+      <c r="D16">
+        <v>29.13</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F17" t="s">
         <v>11</v>
       </c>
     </row>

--- a/assets/resultaten.xlsx
+++ b/assets/resultaten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>iat</t>
   </si>
@@ -34,22 +34,19 @@
     <t>naam</t>
   </si>
   <si>
-    <t>27.97</t>
-  </si>
-  <si>
-    <t>23.74</t>
-  </si>
-  <si>
-    <t>27.59</t>
-  </si>
-  <si>
-    <t>20.7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wett</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bssd</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,101 +432,101 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>26.83</v>
+        <v>22.22</v>
       </c>
       <c r="B2">
-        <v>23.72</v>
+        <v>16.67</v>
       </c>
       <c r="C2">
-        <v>28.49</v>
+        <v>27.78</v>
       </c>
       <c r="D2">
-        <v>20.96</v>
+        <v>33.33</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>23.6</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>25.53</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>27.59</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>23.28</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>24.53</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>27.04</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>23.34</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>25.09</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>29.23</v>
+        <v>0.25</v>
       </c>
       <c r="B5">
-        <v>21.79</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>25.48</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>26.06</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>27.03</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>21.64</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>25.27</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>27.79</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>22.17</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>27.03</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -537,33 +534,33 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>25.46</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>25.13</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>26.85</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>22.56</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>25.42</v>
+        <v>24.14</v>
       </c>
       <c r="B9">
-        <v>27.99</v>
+        <v>28.45</v>
       </c>
       <c r="C9">
-        <v>21.01</v>
+        <v>24.14</v>
       </c>
       <c r="D9">
-        <v>25.58</v>
+        <v>23.28</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -571,16 +568,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>25</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>25.83</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>24.17</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -588,16 +585,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>29.04</v>
+        <v>25.22</v>
       </c>
       <c r="B11">
-        <v>23.5</v>
+        <v>25.22</v>
       </c>
       <c r="C11">
-        <v>24.7</v>
+        <v>25.22</v>
       </c>
       <c r="D11">
-        <v>22.76</v>
+        <v>24.35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -605,16 +602,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>31.62</v>
+        <v>25.25</v>
       </c>
       <c r="B12">
-        <v>21.24</v>
+        <v>25.25</v>
       </c>
       <c r="C12">
-        <v>27.68</v>
+        <v>25.25</v>
       </c>
       <c r="D12">
-        <v>19.46</v>
+        <v>24.24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -622,90 +619,243 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>26.57</v>
+        <v>0.25</v>
       </c>
       <c r="B13">
-        <v>26.53</v>
+        <v>25.23</v>
       </c>
       <c r="C13">
-        <v>22.17</v>
+        <v>25.23</v>
       </c>
       <c r="D13">
-        <v>24.73</v>
+        <v>24.3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>23.99</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>25.52</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>26.27</v>
+        <v>23.97</v>
       </c>
       <c r="D14">
-        <v>24.21</v>
+        <v>24.79</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>24.55</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>24.55</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>27.59</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>19.83</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>23.45</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>29.13</v>
+        <v>25</v>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
+      <c r="E21">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>43</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
         <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resultaten.xlsx
+++ b/assets/resultaten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>iat</t>
   </si>
@@ -34,19 +34,22 @@
     <t>naam</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bssd</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -839,23 +842,57 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E28" t="s">
         <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resultaten.xlsx
+++ b/assets/resultaten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>iat</t>
   </si>
@@ -34,22 +34,19 @@
     <t>naam</t>
   </si>
   <si>
-    <t>20</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>19</t>
+    <t>0</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve"> xssdasdssd</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>25</v>
       </c>
@@ -705,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>25</v>
       </c>
@@ -722,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>26</v>
       </c>
@@ -739,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>32</v>
       </c>
@@ -756,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>25</v>
       </c>
@@ -773,7 +770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>33</v>
       </c>
@@ -790,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>20</v>
       </c>
@@ -807,7 +804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>8</v>
       </c>
@@ -824,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>10</v>
       </c>
@@ -841,7 +838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>3</v>
       </c>
@@ -858,7 +855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>23</v>
       </c>
@@ -875,24 +872,211 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>22</v>
+      </c>
+      <c r="D37">
+        <v>26</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E39" t="s">
         <v>9</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F39" t="s">
         <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resultaten.xlsx
+++ b/assets/resultaten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>iat</t>
   </si>
@@ -34,19 +34,22 @@
     <t>naam</t>
   </si>
   <si>
-    <t>27</t>
+    <t>34</t>
   </si>
   <si>
-    <t>25</t>
+    <t>30</t>
   </si>
   <si>
-    <t>21</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t xml:space="preserve"> xssdasdssd</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -957,7 +960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>17</v>
       </c>
@@ -974,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>23</v>
       </c>
@@ -991,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>25</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>28</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>26</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>31</v>
       </c>
@@ -1059,24 +1062,211 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>19</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>17</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>27</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>31</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>24</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>28</v>
+      </c>
+      <c r="B45">
+        <v>23</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>27</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>28</v>
+      </c>
+      <c r="B46">
+        <v>35</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>37</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>21</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>23</v>
+      </c>
+      <c r="B49">
+        <v>33</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C50" t="s">
         <v>8</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D50" t="s">
         <v>9</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E50" t="s">
         <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
